--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenglingma/Library/CloudStorage/Box-Box/CPRIT VTE Projects/HHS Database/Manuscript/Lymphoma RAM (VA HHS)/JAMA Onco/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA52D725-9FCC-4944-BAB7-9548316D9C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2204C37-5B56-DA49-A9BE-45FF526942AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20340" yWindow="9280" windowWidth="25240" windowHeight="13940" xr2:uid="{52A763E3-0C16-5644-9B03-CA5A44DE9711}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK291" localSheetId="0">Sheet1!$D$7</definedName>
+    <definedName name="OLE_LINK291" localSheetId="0">Sheet1!$C$7</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -250,10 +250,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,415 +568,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF64FBF8-4CCF-1343-A254-969C0707BA10}">
-  <dimension ref="B1:H56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="7"/>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="6"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="6"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenglingma/Library/CloudStorage/Box-Box/CPRIT VTE Projects/HHS Database/Manuscript/Lymphoma RAM (VA HHS)/JAMA Onco/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2204C37-5B56-DA49-A9BE-45FF526942AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DD645-6EA6-C848-B565-F21E61776439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20340" yWindow="9280" windowWidth="25240" windowHeight="13940" xr2:uid="{52A763E3-0C16-5644-9B03-CA5A44DE9711}"/>
   </bookViews>
@@ -161,7 +161,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>Factor</t>
+    <t>numeric/character/facotr/Integer</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">

--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenglingma/Library/CloudStorage/Box-Box/CPRIT VTE Projects/HHS Database/Manuscript/Lymphoma RAM (VA HHS)/JAMA Onco/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shengling/Library/CloudStorage/Box-Box/CPRIT VTE Projects/HHS Database/Manuscript/Lymphoma RAM (VA HHS)/JAMA Onco/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DD645-6EA6-C848-B565-F21E61776439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F33B507-0EE4-9342-81DA-0E9EACFE9651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20340" yWindow="9280" windowWidth="25240" windowHeight="13940" xr2:uid="{52A763E3-0C16-5644-9B03-CA5A44DE9711}"/>
+    <workbookView xWindow="0" yWindow="2040" windowWidth="29400" windowHeight="17080" xr2:uid="{52A763E3-0C16-5644-9B03-CA5A44DE9711}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
-  <si>
-    <t>Lymphoma_histology1</t>
-  </si>
-  <si>
-    <t>Lymphoma_histology2</t>
-  </si>
-  <si>
-    <t>Lymphoma_histology3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>BMI_35</t>
   </si>
@@ -113,8 +103,26 @@
     <t>Time of event after Index date (Initiation of systemic therapy). Unit: months</t>
   </si>
   <si>
+    <t>1 = body mass index ≥35. 0 = otherwise</t>
+  </si>
+  <si>
+    <t>1 = Yes. 0 = No</t>
+  </si>
+  <si>
+    <t>1 = The initial systemic therapy included Cytotoxic_chemotherapy. 0 = otherwise</t>
+  </si>
+  <si>
+    <t>Time period between diagnosis date and initiation of systemic therapy. Unit: months</t>
+  </si>
+  <si>
+    <t>variable type</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
     <r>
-      <t>1 = intermediate risk group (follicular lymphoma (FL), mantle cell lymphoma (MCL), and various other rare histology (B-cell prolymphocytic leukemia, Hairy cell leukemia, cutaneous</t>
+      <t>0= low risk group (Small lymphocytic lymphoma/chronic lymphocytic leukemia, Nodular lymphocyte predominant Hodgkin lymphoma, Lymphoplasmacytic lymphomac, Marginal zone lymphoma). 1 = intermediate risk group (follicular lymphoma (FL), mantle cell lymphoma (MCL), and various other rare histology (B-cell prolymphocytic leukemia, Hairy cell leukemia, cutaneous</t>
     </r>
     <r>
       <rPr>
@@ -133,35 +141,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>T cell lymphoma). 0 = otherwise</t>
+      <t>T cell lymphoma). 2 = high risk group (DLBCL, CHL, systemic T cell lymphoma, precursor non-Hodgkin lymphoma, and Burkitt lymphoma/leukemia). 3 = very high risk group (primary central nervous system lymphoma (PCNSL)).</t>
     </r>
   </si>
   <si>
-    <t>1 = body mass index ≥35. 0 = otherwise</t>
-  </si>
-  <si>
-    <t>1 = very-high risk group (primary central nervous system lymphoma (PCNSL)). 0 = otherwise</t>
-  </si>
-  <si>
-    <t>1 = high risk group (DLBCL, CHL, systemic T cell lymphoma, precursor non-Hodgkin lymphoma, and Burkitt lymphoma/leukemia). 0 = otherwise</t>
-  </si>
-  <si>
-    <t>1 = Yes. 0 = No</t>
-  </si>
-  <si>
-    <t>1 = The initial systemic therapy included Cytotoxic_chemotherapy. 0 = otherwise</t>
-  </si>
-  <si>
-    <t>Time period between diagnosis date and initiation of systemic therapy. Unit: months</t>
-  </si>
-  <si>
-    <t>variable type</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>numeric/character/facotr/Integer</t>
+    <t>Lymphoma_histology</t>
+  </si>
+  <si>
+    <t>numeric/character/factor/Integer</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
@@ -236,23 +226,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -272,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -560,7 +549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,415 +557,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF64FBF8-4CCF-1343-A254-969C0707BA10}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="120.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s">
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F33" s="3"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F34" s="3"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="3"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F48" s="3"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F50" s="3"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F51" s="3"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="3"/>
+      <c r="G52" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data dictionary.xlsx
+++ b/Data dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shengling/Library/CloudStorage/Box-Box/CPRIT VTE Projects/HHS Database/Manuscript/Lymphoma RAM (VA HHS)/JAMA Onco/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenglingma/Library/CloudStorage/Box-Box/CPRIT VTE Projects/HHS Database/Project/Lymphoma RAM/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F33B507-0EE4-9342-81DA-0E9EACFE9651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB03B13-07E3-7D4B-A398-DD234F7658ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2040" windowWidth="29400" windowHeight="17080" xr2:uid="{52A763E3-0C16-5644-9B03-CA5A44DE9711}"/>
   </bookViews>
@@ -121,6 +121,15 @@
     <t>numeric</t>
   </si>
   <si>
+    <t>Lymphoma_histology</t>
+  </si>
+  <si>
+    <t>numeric/character/factor/Integer</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
     <r>
       <t>0= low risk group (Small lymphocytic lymphoma/chronic lymphocytic leukemia, Nodular lymphocyte predominant Hodgkin lymphoma, Lymphoplasmacytic lymphomac, Marginal zone lymphoma). 1 = intermediate risk group (follicular lymphoma (FL), mantle cell lymphoma (MCL), and various other rare histology (B-cell prolymphocytic leukemia, Hairy cell leukemia, cutaneous</t>
     </r>
@@ -129,8 +138,9 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -138,27 +148,19 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>T cell lymphoma). 2 = high risk group (DLBCL, CHL, systemic T cell lymphoma, precursor non-Hodgkin lymphoma, and Burkitt lymphoma/leukemia). 3 = very high risk group (primary central nervous system lymphoma (PCNSL)).</t>
     </r>
-  </si>
-  <si>
-    <t>Lymphoma_histology</t>
-  </si>
-  <si>
-    <t>numeric/character/factor/Integer</t>
-  </si>
-  <si>
-    <t>factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,25 +184,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,22 +223,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,9 +265,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +305,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,7 +411,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +553,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -560,21 +564,22 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -585,320 +590,320 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="2"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="3"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="3"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="3"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="3"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="3"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="3"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="3"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="3"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F31" s="3"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="3"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="3"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="3"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="3"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="3"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="3"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="3"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="3"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="3"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="3"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F42" s="3"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="2"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="3"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G45" s="2"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F46" s="3"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G47" s="2"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F48" s="3"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="2"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F50" s="3"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F51" s="3"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="8"/>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F52" s="3"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
